--- a/TOPUP.xlsx
+++ b/TOPUP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marvin\git\ACCBid-Mobile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marvin\Documents\GitHub\ACCBid-Mobile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6DF6D0-F8FF-4B49-B13F-8CDBEF8F57CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B164A1F-8F7A-45FD-88A4-343D6293124A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{EF6AB4BD-C0EF-40B8-BC53-F3D8663F7812}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>varTopUP</t>
   </si>
@@ -39,6 +39,24 @@
   </si>
   <si>
     <t>BANK CENTRAL ASIA</t>
+  </si>
+  <si>
+    <t>Menunggu Verifikasi</t>
+  </si>
+  <si>
+    <t>details</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Top Up Harus Kelipatan 500Ribu</t>
   </si>
 </sst>
 </file>
@@ -390,32 +408,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB894879-ADBD-4C21-A972-53E4F4252345}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>500000</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>400000</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/TOPUP.xlsx
+++ b/TOPUP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marvin\Documents\GitHub\ACCBid-Mobile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B164A1F-8F7A-45FD-88A4-343D6293124A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C93D69D-4AE1-45EC-B0D4-D9E5E7695F8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{EF6AB4BD-C0EF-40B8-BC53-F3D8663F7812}"/>
+    <workbookView xWindow="11835" yWindow="5250" windowWidth="7500" windowHeight="6000" xr2:uid="{EF6AB4BD-C0EF-40B8-BC53-F3D8663F7812}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
   <si>
     <t>varTopUP</t>
   </si>
@@ -38,9 +38,6 @@
     <t>varBank</t>
   </si>
   <si>
-    <t>BANK CENTRAL ASIA</t>
-  </si>
-  <si>
     <t>Menunggu Verifikasi</t>
   </si>
   <si>
@@ -57,6 +54,51 @@
   </si>
   <si>
     <t>Top Up Harus Kelipatan 500Ribu</t>
+  </si>
+  <si>
+    <t>JenisLelang</t>
+  </si>
+  <si>
+    <t>Astria</t>
+  </si>
+  <si>
+    <t>varFoto</t>
+  </si>
+  <si>
+    <t>IBID</t>
+  </si>
+  <si>
+    <t>BANK CENTRAL DAGANG</t>
+  </si>
+  <si>
+    <t>BANK MANDIRI</t>
+  </si>
+  <si>
+    <t>Camera</t>
+  </si>
+  <si>
+    <t>Gallery</t>
+  </si>
+  <si>
+    <t>varTanggal</t>
+  </si>
+  <si>
+    <t>Picture</t>
+  </si>
+  <si>
+    <t>Foto1.jpg</t>
+  </si>
+  <si>
+    <t>Foto9.jpg</t>
+  </si>
+  <si>
+    <t>Nominal Tidak Boleh Kosong</t>
+  </si>
+  <si>
+    <t>Bank Tidak Boleh Kosong</t>
+  </si>
+  <si>
+    <t>Tanggal Tidak Boleh Kosong</t>
   </si>
 </sst>
 </file>
@@ -408,60 +450,194 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB894879-ADBD-4C21-A972-53E4F4252345}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" customWidth="1"/>
+    <col min="2" max="2" width="32" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="25.85546875" customWidth="1"/>
+    <col min="8" max="8" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
       <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>500000</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>400000</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>50000</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>20000</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>20000</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>50000</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
